--- a/src/test/java/dataEngine/Configuration - Work Order 8.xlsx
+++ b/src/test/java/dataEngine/Configuration - Work Order 8.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -718,6 +715,9 @@
   </si>
   <si>
     <t>maxadmin</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -922,8 +922,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1221,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:XFD90"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,16 +1296,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="17">
@@ -1287,69 +1315,69 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="H5" s="22" t="b">
         <v>1</v>
@@ -1358,19 +1386,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H6" s="24" t="b">
         <v>1</v>
@@ -1379,19 +1407,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="24" t="b">
         <v>1</v>
@@ -1400,19 +1428,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="24" t="b">
         <v>1</v>
@@ -1421,19 +1449,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="24">
         <v>1</v>
@@ -1442,19 +1470,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="24">
         <v>1</v>
@@ -1463,19 +1491,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="24" t="b">
         <v>1</v>
@@ -1484,19 +1512,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
       <c r="F12" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="24" t="b">
         <v>1</v>
@@ -1505,19 +1533,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
       <c r="F13" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="24" t="b">
         <v>1</v>
@@ -1526,19 +1554,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
       <c r="F14" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="24" t="b">
         <v>1</v>
@@ -1547,19 +1575,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
       <c r="F15" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="24" t="b">
         <v>1</v>
@@ -1568,19 +1596,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
       <c r="F16" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="24" t="b">
         <v>1</v>
@@ -1589,19 +1617,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="24" t="b">
         <v>1</v>
@@ -1610,19 +1638,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
       <c r="F18" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="24" t="b">
         <v>1</v>
@@ -1631,19 +1659,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
       <c r="F19" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="24" t="b">
         <v>1</v>
@@ -1652,19 +1680,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
       <c r="F20" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" s="24" t="b">
         <v>1</v>
@@ -1673,19 +1701,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21" s="24" t="b">
         <v>1</v>
@@ -1694,19 +1722,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
       <c r="F22" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" s="24" t="b">
         <v>1</v>
@@ -1715,19 +1743,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
       <c r="F23" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" s="24" t="b">
         <v>1</v>
@@ -1736,19 +1764,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24" s="24" t="b">
         <v>1</v>
@@ -1757,19 +1785,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
       <c r="F25" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" s="24" t="b">
         <v>1</v>
@@ -1778,19 +1806,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H26" s="24" t="b">
         <v>1</v>
@@ -1799,19 +1827,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="24" t="b">
         <v>1</v>
@@ -1820,19 +1848,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28" s="24" t="b">
         <v>1</v>
@@ -1841,19 +1869,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29" s="24" t="b">
         <v>1</v>
@@ -1862,19 +1890,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30" s="24" t="b">
         <v>1</v>
@@ -1883,19 +1911,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="24" t="b">
         <v>1</v>
@@ -1904,19 +1932,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32" s="24" t="b">
         <v>1</v>
@@ -1925,19 +1953,19 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
       <c r="F33" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="24" t="b">
         <v>1</v>
@@ -1946,19 +1974,19 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
       <c r="F34" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" s="24" t="b">
         <v>1</v>
@@ -1967,19 +1995,19 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
       <c r="F35" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" s="24" t="b">
         <v>1</v>
@@ -1988,19 +2016,19 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
       <c r="F36" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36" s="24" t="b">
         <v>1</v>
@@ -2009,19 +2037,19 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
       <c r="F37" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" s="24" t="b">
         <v>1</v>
@@ -2030,19 +2058,19 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38" s="24" t="b">
         <v>1</v>
@@ -2051,19 +2079,19 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" s="24" t="b">
         <v>1</v>
@@ -2072,19 +2100,19 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40" s="24" t="b">
         <v>1</v>
@@ -2093,19 +2121,19 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="14"/>
       <c r="F41" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41" s="24" t="b">
         <v>1</v>
@@ -2114,19 +2142,19 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H42" s="24" t="b">
         <v>1</v>
@@ -2135,19 +2163,19 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43" s="24" t="b">
         <v>1</v>
@@ -2156,19 +2184,19 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44" s="24" t="b">
         <v>1</v>
@@ -2177,19 +2205,19 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
       <c r="F45" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45" s="24" t="b">
         <v>1</v>
@@ -2198,19 +2226,19 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
       <c r="F46" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46" s="24" t="b">
         <v>1</v>
@@ -2219,19 +2247,19 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
       <c r="F47" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47" s="24" t="b">
         <v>1</v>
@@ -2240,19 +2268,19 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
       <c r="F48" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48" s="24" t="b">
         <v>1</v>
@@ -2262,19 +2290,19 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
       <c r="F49" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49" s="24" t="b">
         <v>1</v>
@@ -2284,19 +2312,19 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
       <c r="F50" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H50" s="24" t="b">
         <v>1</v>
@@ -2306,19 +2334,19 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
       <c r="F51" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51" s="24" t="b">
         <v>1</v>
@@ -2328,19 +2356,19 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="7"/>
       <c r="F52" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H52" s="24" t="b">
         <v>1</v>
@@ -2350,19 +2378,19 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
       <c r="F53" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53" s="24" t="b">
         <v>1</v>
@@ -2372,19 +2400,19 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
       <c r="F54" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54" s="24" t="b">
         <v>1</v>
@@ -2394,19 +2422,19 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H55" s="24" t="b">
         <v>1</v>
@@ -2416,19 +2444,19 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
       <c r="F56" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H56" s="24" t="b">
         <v>1</v>
@@ -2438,19 +2466,19 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57" s="24" t="b">
         <v>1</v>
@@ -2460,19 +2488,19 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58" s="24" t="b">
         <v>1</v>
@@ -2482,19 +2510,19 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59" s="24" t="b">
         <v>1</v>
@@ -2504,19 +2532,19 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60" s="24" t="b">
         <v>1</v>
@@ -2526,19 +2554,19 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
       <c r="F61" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61" s="24" t="b">
         <v>1</v>
@@ -2548,19 +2576,19 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62" s="24" t="b">
         <v>1</v>
@@ -2570,19 +2598,19 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63" s="24" t="b">
         <v>1</v>
@@ -2592,19 +2620,19 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64" s="24" t="b">
         <v>1</v>
@@ -2614,19 +2642,19 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H65" s="24" t="b">
         <v>1</v>
@@ -2636,19 +2664,19 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66" s="24" t="b">
         <v>1</v>
@@ -2658,19 +2686,19 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H67" s="24" t="b">
         <v>1</v>
@@ -2680,19 +2708,19 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H68" s="24" t="b">
         <v>1</v>
@@ -2702,19 +2730,19 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69" s="24" t="b">
         <v>1</v>
@@ -2724,19 +2752,19 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H70" s="24" t="b">
         <v>1</v>
@@ -2746,19 +2774,19 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71" s="24" t="b">
         <v>1</v>
@@ -2768,19 +2796,19 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H72" s="24" t="b">
         <v>1</v>
@@ -2790,19 +2818,19 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73" s="24" t="b">
         <v>1</v>
@@ -2812,19 +2840,19 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74" s="24" t="b">
         <v>1</v>
@@ -2834,19 +2862,19 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
       <c r="F75" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75" s="24" t="b">
         <v>1</v>
@@ -2856,19 +2884,19 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76" s="24" t="b">
         <v>1</v>
@@ -2878,19 +2906,19 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77" s="24" t="b">
         <v>1</v>
@@ -2900,19 +2928,19 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
       <c r="F78" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G78" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H78" s="24" t="b">
         <v>1</v>
@@ -2922,19 +2950,19 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
       <c r="F79" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H79" s="24" t="b">
         <v>1</v>
@@ -2944,19 +2972,19 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
       <c r="F80" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H80" s="24" t="b">
         <v>1</v>
@@ -2966,19 +2994,19 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
       <c r="F81" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G81" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H81" s="24" t="b">
         <v>1</v>
@@ -2988,19 +3016,19 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
       <c r="F82" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82" s="24" t="b">
         <v>1</v>
@@ -3010,19 +3038,19 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83" s="24" t="b">
         <v>1</v>
@@ -3032,19 +3060,19 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H84" s="24" t="b">
         <v>1</v>
@@ -3054,19 +3082,19 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
       <c r="F85" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85" s="24" t="b">
         <v>1</v>
@@ -3076,19 +3104,19 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
       <c r="F86" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86" s="24" t="b">
         <v>1</v>
@@ -3098,19 +3126,19 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G87" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87" s="24" t="b">
         <v>1</v>
@@ -3120,19 +3148,19 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
       <c r="F88" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88" s="24" t="b">
         <v>1</v>
@@ -3142,19 +3170,19 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
       <c r="F89" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G89" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H89" s="24" t="b">
         <v>1</v>
@@ -3163,19 +3191,19 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
       <c r="F90" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G90" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90" s="24" t="b">
         <v>1</v>
@@ -3184,19 +3212,19 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
       <c r="F91" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H91" s="24" t="b">
         <v>1</v>
@@ -3205,19 +3233,19 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
       <c r="F92" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92" s="24" t="b">
         <v>1</v>
@@ -3226,19 +3254,19 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
       <c r="F93" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93" s="24" t="b">
         <v>1</v>
@@ -3247,19 +3275,19 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
       <c r="F94" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H94" s="24" t="b">
         <v>1</v>
@@ -3268,19 +3296,19 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95" s="24" t="b">
         <v>1</v>
@@ -3289,19 +3317,19 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C96" s="24"/>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
       <c r="F96" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G96" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96" s="24" t="b">
         <v>1</v>
@@ -3310,19 +3338,19 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G97" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H97" s="24" t="b">
         <v>1</v>
@@ -3331,19 +3359,19 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C98" s="24"/>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G98" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H98" s="24" t="b">
         <v>1</v>
@@ -3352,19 +3380,19 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C99" s="24"/>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99" s="24" t="b">
         <v>1</v>
@@ -3373,19 +3401,19 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100" s="24" t="b">
         <v>1</v>
@@ -3394,19 +3422,19 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101" s="24" t="b">
         <v>1</v>
@@ -3415,19 +3443,19 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C102" s="24"/>
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
       <c r="F102" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102" s="24" t="b">
         <v>1</v>
@@ -3436,19 +3464,19 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C103" s="24"/>
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
       <c r="F103" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103" s="24" t="b">
         <v>1</v>
@@ -3457,19 +3485,19 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C104" s="24"/>
       <c r="D104" s="24"/>
       <c r="E104" s="24"/>
       <c r="F104" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104" s="24" t="b">
         <v>1</v>
@@ -3478,19 +3506,19 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
       <c r="F105" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H105" s="34">
         <v>1</v>
@@ -3499,10 +3527,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
@@ -3511,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H106" s="24">
         <v>1</v>
